--- a/trunk/ENTREGABLES 1 QA/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
+++ b/trunk/ENTREGABLES 1 QA/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="150" windowWidth="18915" windowHeight="8445"/>
+    <workbookView xWindow="4020" yWindow="-270" windowWidth="18915" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
   <si>
     <t>Objetivos / Procesos</t>
   </si>
@@ -464,6 +464,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -517,21 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,7 +842,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,21 +866,21 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
@@ -930,16 +930,14 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="19" t="s">
@@ -962,9 +960,9 @@
       <c r="N7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="41"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -972,7 +970,7 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -990,9 +988,9 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="41"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="23"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1000,7 +998,7 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1022,9 +1020,9 @@
         <v>43</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="41" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="23" t="s">
         <v>43</v>
       </c>
       <c r="R9" s="2"/>
@@ -1034,8 +1032,8 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1058,11 +1056,11 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="41"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="23"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1070,12 +1068,14 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="19"/>
@@ -1092,11 +1092,11 @@
       <c r="N11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="41"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="23"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1104,7 +1104,7 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1124,11 +1124,11 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="41"/>
+      <c r="O12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1136,14 +1136,12 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
@@ -1162,11 +1160,11 @@
         <v>43</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="41"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="23"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1174,14 +1172,12 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="19" t="s">
@@ -1204,11 +1200,11 @@
         <v>43</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="41"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="23"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1216,14 +1212,12 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="19"/>
@@ -1238,11 +1232,11 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="41" t="s">
+      <c r="O15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="23" t="s">
         <v>43</v>
       </c>
       <c r="R15" s="2"/>
@@ -1252,7 +1246,7 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1282,11 +1276,11 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="41"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="23"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1294,7 +1288,7 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1324,11 +1318,11 @@
         <v>43</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="41"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="23"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1336,16 +1330,14 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
@@ -1360,9 +1352,9 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="41"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="23"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1370,8 +1362,8 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="14" t="s">
         <v>31</v>
       </c>
@@ -1390,9 +1382,9 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="41"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1400,8 +1392,8 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
@@ -1420,9 +1412,9 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="41"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1430,14 +1422,12 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D21" s="18"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="19"/>
@@ -1454,11 +1444,11 @@
       <c r="N21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q21" s="41"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="23"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1466,16 +1456,14 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="19"/>
@@ -1486,9 +1474,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="41" t="s">
+      <c r="O22" s="22"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="23" t="s">
         <v>43</v>
       </c>
       <c r="R22" s="2"/>
@@ -1498,16 +1486,14 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="19"/>
@@ -1520,9 +1506,9 @@
       <c r="N23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="41"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1530,8 +1516,8 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="17" t="s">
         <v>37</v>
       </c>
@@ -1550,9 +1536,9 @@
       <c r="N24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="40"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="41"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="23"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1560,8 +1546,8 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="17" t="s">
         <v>38</v>
       </c>
@@ -1582,11 +1568,11 @@
       <c r="N25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="40"/>
-      <c r="P25" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="41"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="23"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1594,16 +1580,14 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="19"/>
@@ -1616,11 +1600,11 @@
         <v>43</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="41"/>
+      <c r="O26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1628,14 +1612,12 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
@@ -1660,11 +1642,11 @@
         <v>43</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="41"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="23"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1672,14 +1654,12 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="19"/>
@@ -1694,9 +1674,9 @@
         <v>43</v>
       </c>
       <c r="N28" s="7"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="41"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="23"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>

--- a/trunk/ENTREGABLES 1 QA/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
+++ b/trunk/ENTREGABLES 1 QA/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
@@ -842,7 +842,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
